--- a/data/work3.xlsx
+++ b/data/work3.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\project_l\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D84551-3929-4EF6-A4AD-83DD933D0DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE505162-66AC-4B99-9BEA-B9EDB42D1814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -647,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -841,13 +842,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="12">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="H6" s="12">
         <v>45361</v>
       </c>
       <c r="I6" s="12">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="J6" s="12">
         <v>45361</v>
@@ -1014,13 +1015,13 @@
         <v>9</v>
       </c>
       <c r="G11" s="12">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="H11" s="12">
         <v>45432</v>
       </c>
       <c r="I11" s="12">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="J11" s="12">
         <v>45432</v>
@@ -1344,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E106612A-23D6-468A-A1EA-50DACC2FB28E}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
